--- a/Lab 4/interpolation parameters.xlsx
+++ b/Lab 4/interpolation parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\enel453Project\Lab 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6DC36C2-0103-4163-8A8C-15D5BA0EC098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECE1D5E-96D4-4733-A46A-78A0D63D4609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A872511F-DB86-4839-8110-A594A404BEB4}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{A872511F-DB86-4839-8110-A594A404BEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>interpolation parameters</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>blinking</t>
+  </si>
+  <si>
+    <t>xmin</t>
+  </si>
+  <si>
+    <t>xmax</t>
+  </si>
+  <si>
+    <t>ymin</t>
+  </si>
+  <si>
+    <t>ymax</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>fmax</t>
+  </si>
+  <si>
+    <t>fmin</t>
+  </si>
+  <si>
+    <t>kHz</t>
+  </si>
+  <si>
+    <t>clock cycles</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>clk freq</t>
+  </si>
+  <si>
+    <t>PWM freq</t>
+  </si>
+  <si>
+    <t>fmax factor</t>
+  </si>
+  <si>
+    <t>fmin factor</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>clk period</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>initial pwm period</t>
+  </si>
+  <si>
+    <t>expect pwm period</t>
   </si>
 </sst>
 </file>
@@ -388,15 +457,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F1384E-14B6-45D4-8574-4294083B3320}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3.5</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>3.5</v>
+      </c>
+      <c r="D2">
+        <f>C2</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <f>B3</f>
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <f>C3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>511</v>
+      </c>
+      <c r="C4">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>24462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>489237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <f>(B5-B4)/(B3-B2)</f>
+        <v>-14</v>
+      </c>
+      <c r="C6">
+        <f>(C5-C4)/(C3-C2)</f>
+        <v>-1.0136986301369864</v>
+      </c>
+      <c r="D6">
+        <f>(D5-D4)/(D3-D2)</f>
+        <v>12733.561643835616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f>B4-B2*B6</f>
+        <v>560</v>
+      </c>
+      <c r="C7">
+        <f>C4-C2*C6</f>
+        <v>52.547945205479451</v>
+      </c>
+      <c r="D7">
+        <f>D4-D2*D6</f>
+        <v>-20105.465753424651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f>LOG(D5,2)-1</f>
+        <v>17.900173990521985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>511</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <f>C11</f>
+        <v>511</v>
+      </c>
+      <c r="G11" t="str">
+        <f>D11</f>
+        <v>clock cycles</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>50000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <f>C12*1000</f>
+        <v>50000000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <f>C12/C11</f>
+        <v>97.847358121330728</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <f>C13*1000</f>
+        <v>97847.358121330733</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <f>C13/C9</f>
+        <v>12.230919765166341</v>
+      </c>
+      <c r="F14">
+        <f>F13/F9</f>
+        <v>24461.839530332683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <f>C13/C10</f>
+        <v>48.923679060665364</v>
+      </c>
+      <c r="F15">
+        <f>F13/F10</f>
+        <v>489236.79060665367</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0.02</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <f>C12</f>
+        <v>50000</v>
+      </c>
+      <c r="D18" t="str">
+        <f>D12</f>
+        <v>kHz</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18">
+        <v>1.0240000000000001E-2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <f>1/C18</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <f>C17/C19</f>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <f>H19*H18</f>
+        <v>3.0720000000000004E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Lab 4/interpolation parameters.xlsx
+++ b/Lab 4/interpolation parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\enel453Project\Lab 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECE1D5E-96D4-4733-A46A-78A0D63D4609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF972B1-50AC-426B-9B5E-5BA278CBC4D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{A872511F-DB86-4839-8110-A594A404BEB4}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8976" xr2:uid="{A872511F-DB86-4839-8110-A594A404BEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,15 +481,15 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3.5</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <f>B2</f>
-        <v>3.5</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <f>C2</f>
-        <v>3.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -497,15 +497,15 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="C3">
         <f>B3</f>
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="D3">
         <f>C3</f>
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -542,15 +542,15 @@
       </c>
       <c r="B6">
         <f>(B5-B4)/(B3-B2)</f>
-        <v>-14</v>
+        <v>-1.4</v>
       </c>
       <c r="C6">
         <f>(C5-C4)/(C3-C2)</f>
-        <v>-1.0136986301369864</v>
+        <v>-0.10136986301369863</v>
       </c>
       <c r="D6">
         <f>(D5-D4)/(D3-D2)</f>
-        <v>12733.561643835616</v>
+        <v>1273.3561643835617</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -567,7 +567,7 @@
       </c>
       <c r="D7">
         <f>D4-D2*D6</f>
-        <v>-20105.465753424651</v>
+        <v>-20105.465753424658</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">

--- a/Lab 4/interpolation parameters.xlsx
+++ b/Lab 4/interpolation parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\enel453Project\Lab 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF972B1-50AC-426B-9B5E-5BA278CBC4D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B7052A-D8C5-4E17-A744-6193AA2C86FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8976" xr2:uid="{A872511F-DB86-4839-8110-A594A404BEB4}"/>
+    <workbookView xWindow="-27840" yWindow="960" windowWidth="21600" windowHeight="11325" xr2:uid="{A872511F-DB86-4839-8110-A594A404BEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
